--- a/resultados/resultado_version 12.xlsx
+++ b/resultados/resultado_version 12.xlsx
@@ -594,11 +594,31 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>easy:80.8</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>very:13.79</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>neutral:5.01</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Easy:0.13</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>None:None</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -659,11 +679,31 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>easy:87.26</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>very:8.23</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>neutral:4.02</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Easy:0.11</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>difficult:0.08</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/resultados/resultado_version 12.xlsx
+++ b/resultados/resultado_version 12.xlsx
@@ -596,17 +596,17 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>easy:80.8</t>
+          <t>easy:81.62</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>very:13.79</t>
+          <t>very:13.31</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>neutral:5.01</t>
+          <t>neutral:4.69</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>None:None</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>easy:87.26</t>
+          <t>easy:87.43</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>very:8.23</t>
+          <t>very:8.17</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>neutral:4.02</t>
+          <t>neutral:3.93</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>difficult:0.08</t>
+          <t>difficult:0.07</t>
         </is>
       </c>
     </row>

--- a/resultados/resultado_version 12.xlsx
+++ b/resultados/resultado_version 12.xlsx
@@ -596,17 +596,17 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>easy:81.62</t>
+          <t>easy:81.23</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>very:13.31</t>
+          <t>very:13.38</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>neutral:4.69</t>
+          <t>neutral:5.0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -681,17 +681,17 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>easy:87.43</t>
+          <t>easy:87.44</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>very:8.17</t>
+          <t>very:8.19</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>neutral:3.93</t>
+          <t>neutral:3.9</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>difficult:0.07</t>
+          <t>difficult:0.08</t>
         </is>
       </c>
     </row>
